--- a/V1.0.3/sch/IOT MODULE_V1.0.3-BOM.xlsx
+++ b/V1.0.3/sch/IOT MODULE_V1.0.3-BOM.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="0" windowWidth="18276" windowHeight="8184"/>
+    <workbookView xWindow="960" yWindow="0" windowWidth="18276" windowHeight="8184"/>
   </bookViews>
   <sheets>
     <sheet name="IOT MODULE_V1.0.3_SCH" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="206">
   <si>
     <t>序号</t>
   </si>
@@ -138,7 +138,7 @@
     <t>C39</t>
   </si>
   <si>
-    <t>C45,C48</t>
+    <t>C45</t>
   </si>
   <si>
     <t>CL05B103KA5NNNC</t>
@@ -171,6 +171,9 @@
     <t>B340A</t>
   </si>
   <si>
+    <t>3.0A  SCHOTTKY</t>
+  </si>
+  <si>
     <t>DIODES</t>
   </si>
   <si>
@@ -294,30 +297,33 @@
     <t>L4</t>
   </si>
   <si>
-    <t>IHLP2020BZER4R7M01</t>
-  </si>
-  <si>
-    <t>4.7uH</t>
-  </si>
-  <si>
-    <t>4.7uH, 5.2*5.5, 2.8A</t>
+    <t>LPO3310-222MLC</t>
+  </si>
+  <si>
+    <t>2.2uH</t>
+  </si>
+  <si>
+    <t>2.2uH, 3*3*1, 1.1A</t>
+  </si>
+  <si>
+    <t>Coilcraft</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>IHLP2525CZER6R8M01</t>
+  </si>
+  <si>
+    <t>6.8uH</t>
+  </si>
+  <si>
+    <t>6.8uH, 7*7, 4.5A</t>
   </si>
   <si>
     <t>VISHAY</t>
   </si>
   <si>
-    <t>L5</t>
-  </si>
-  <si>
-    <t>IHLP2525CZER6R8M01</t>
-  </si>
-  <si>
-    <t>6.8uH</t>
-  </si>
-  <si>
-    <t>6.8uH, 7*7, 4.5A</t>
-  </si>
-  <si>
     <t>L6</t>
   </si>
   <si>
@@ -357,7 +363,7 @@
     <t>风华高科</t>
   </si>
   <si>
-    <t>R6,R23,R36,R37</t>
+    <t>R6,R23,R34,R35,R36,R37</t>
   </si>
   <si>
     <t>RC02K 000JT</t>
@@ -366,7 +372,7 @@
     <t>0ohm, 0402, 100ppm, 5%</t>
   </si>
   <si>
-    <t>R7,R10,R11,R12,R13,R17,R25,R26,R27,R34,R35</t>
+    <t>R7,R10,R11,R12,R13,R17,R25,R26,R27</t>
   </si>
   <si>
     <t>RC02K 101JT</t>
@@ -447,22 +453,7 @@
     <t>RC02K 100JT</t>
   </si>
   <si>
-    <t>R45</t>
-  </si>
-  <si>
-    <t>RC02K 4642FT</t>
-  </si>
-  <si>
-    <t>46.4Kohm, 0402, 100ppm, 1%</t>
-  </si>
-  <si>
-    <t>R46</t>
-  </si>
-  <si>
-    <t>RC02K 3092FT</t>
-  </si>
-  <si>
-    <t>30.9Kohm, 0402, 100ppm, 1%</t>
+    <t>10ohm, 0402, 100ppm, 5%</t>
   </si>
   <si>
     <t>SW1</t>
@@ -492,6 +483,9 @@
     <t>SN74LVC245A</t>
   </si>
   <si>
+    <t>Octal Bus Transceiver With 3-State Outputs</t>
+  </si>
+  <si>
     <t>TI</t>
   </si>
   <si>
@@ -579,25 +573,31 @@
     <t>U10</t>
   </si>
   <si>
-    <t>TPS73130</t>
-  </si>
-  <si>
-    <t>LDO, 150mA</t>
+    <t>TPS22860DBVR</t>
+  </si>
+  <si>
+    <t>Load switch, 200mA</t>
   </si>
   <si>
     <t>U11</t>
   </si>
   <si>
-    <t>TPS62200DBV</t>
+    <t>LM3671MF</t>
+  </si>
+  <si>
+    <t>DC-DC, 600mA, SOT-23</t>
   </si>
   <si>
     <t>U12</t>
   </si>
   <si>
-    <t>TPS54331D</t>
-  </si>
-  <si>
-    <t>V1,V5,V9,V10</t>
+    <t>TPS54331DDAR</t>
+  </si>
+  <si>
+    <t>DC-DC, Step Down, 3A, 570KHz, 3.5-28V input</t>
+  </si>
+  <si>
+    <t>V1,V5</t>
   </si>
   <si>
     <t>RB520S30T</t>
@@ -633,26 +633,11 @@
     <t>V15,V16,V17</t>
   </si>
   <si>
-    <t>10ohm, 0402, 100ppm, 5%</t>
-  </si>
-  <si>
-    <t>DC-DC, 300mA, SOT-23</t>
+    <t xml:space="preserve">  Revised: Tuesday, June 06, 2017</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">3.0A SCHOTTKY </t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>DC-DC 3A, 570KHz, 3.5-28V</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Octal Bus Transceiver</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>IOT MODULE_V1.0.3_BOM</t>
+    <t xml:space="preserve">          Revision: </t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -823,14 +808,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1010,8 +995,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1126,21 +1117,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1270,36 +1246,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1622,1573 +1577,1441 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.77734375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16" style="2" customWidth="1"/>
-    <col min="6" max="6" width="37.5546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="4.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="4.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="A1" s="1" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E5" s="1">
         <v>476</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E6" s="1">
         <v>220</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B7" s="1">
         <v>9</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E7" s="1">
         <v>106</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B8" s="1">
         <v>20</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E8" s="1">
         <v>104</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E9" s="1">
         <v>270</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B10" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E10" s="1">
         <v>270</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B11" s="1">
         <v>6</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E11" s="1">
         <v>120</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H11" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B12" s="1">
         <v>7</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E12" s="1">
         <v>330</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H12" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B13" s="1">
         <v>2</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E13" s="1">
         <v>477</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H13" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B14" s="1">
         <v>3</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E14" s="1">
         <v>105</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="7">
-        <v>1</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E15" s="1">
         <v>104</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H15" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="1">
+        <v>103</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="1">
+        <v>472</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="1">
+        <v>390</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>23</v>
+      </c>
+      <c r="B27" s="1">
         <v>2</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>24</v>
+      </c>
+      <c r="B28" s="1">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>25</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>26</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>27</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>28</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>29</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>30</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>31</v>
+      </c>
+      <c r="B35" s="1">
+        <v>3</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>32</v>
+      </c>
+      <c r="B36" s="1">
+        <v>14</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" s="1">
+        <v>102</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>33</v>
+      </c>
+      <c r="B37" s="1">
+        <v>6</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>34</v>
+      </c>
+      <c r="B38" s="1">
+        <v>9</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E38" s="1">
+        <v>101</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>35</v>
+      </c>
+      <c r="B39" s="1">
+        <v>2</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39" s="1">
+        <v>220</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>36</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E40" s="1">
+        <v>472</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>37</v>
+      </c>
+      <c r="B41" s="1">
+        <v>5</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1002</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>38</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E42" s="1">
+        <v>102</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>39</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E43" s="1">
+        <v>5623</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>40</v>
       </c>
-      <c r="E14" s="4">
-        <v>103</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1003</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>41</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>13</v>
-      </c>
-      <c r="B15" s="7">
-        <v>1</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E45" s="1">
+        <v>4992</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>42</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E46" s="1">
+        <v>2491</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>43</v>
       </c>
-      <c r="E15" s="4">
-        <v>472</v>
-      </c>
-      <c r="F15" s="4" t="s">
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E47" s="1">
+        <v>100</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>44</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>14</v>
-      </c>
-      <c r="B16" s="7">
-        <v>1</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>45</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="B49" s="1">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>46</v>
       </c>
-      <c r="E16" s="4">
-        <v>390</v>
-      </c>
-      <c r="F16" s="4" t="s">
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>47</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>15</v>
-      </c>
-      <c r="B17" s="7">
-        <v>1</v>
-      </c>
-      <c r="C17" s="9" t="s">
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>48</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="B52" s="1">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>49</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="G17" s="4" t="s">
+      <c r="B53" s="1">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>50</v>
       </c>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>16</v>
-      </c>
-      <c r="B18" s="7">
-        <v>1</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>51</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="B55" s="1">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>52</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="4" t="s">
+      <c r="B56" s="1">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>53</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="B57" s="1">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>54</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>55</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>56</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>57</v>
+      </c>
+      <c r="B61" s="1">
+        <v>2</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>58</v>
+      </c>
+      <c r="B62" s="1">
+        <v>4</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>59</v>
+      </c>
+      <c r="B63" s="1">
+        <v>1</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>60</v>
+      </c>
+      <c r="B64" s="1">
+        <v>5</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H64" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>17</v>
-      </c>
-      <c r="B19" s="7">
-        <v>1</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>18</v>
-      </c>
-      <c r="B20" s="7">
-        <v>1</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="4" t="s">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
         <v>61</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
-        <v>19</v>
-      </c>
-      <c r="B21" s="7">
-        <v>1</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <v>20</v>
-      </c>
-      <c r="B22" s="7">
-        <v>1</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
-        <v>21</v>
-      </c>
-      <c r="B23" s="7">
-        <v>1</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
-        <v>22</v>
-      </c>
-      <c r="B24" s="7">
-        <v>1</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
-        <v>23</v>
-      </c>
-      <c r="B25" s="7">
-        <v>2</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
-        <v>24</v>
-      </c>
-      <c r="B26" s="7">
+      <c r="B65" s="1">
         <v>3</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
-        <v>25</v>
-      </c>
-      <c r="B27" s="7">
-        <v>1</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
-        <v>26</v>
-      </c>
-      <c r="B28" s="7">
-        <v>1</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
-        <v>27</v>
-      </c>
-      <c r="B29" s="7">
-        <v>2</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
-        <v>28</v>
-      </c>
-      <c r="B30" s="7">
-        <v>1</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
-        <v>29</v>
-      </c>
-      <c r="B31" s="7">
-        <v>1</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
-        <v>30</v>
-      </c>
-      <c r="B32" s="7">
-        <v>1</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
-        <v>31</v>
-      </c>
-      <c r="B33" s="7">
-        <v>3</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
-        <v>32</v>
-      </c>
-      <c r="B34" s="7">
-        <v>14</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D34" s="4" t="s">
+      <c r="C65" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E34" s="4">
-        <v>102</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
-        <v>33</v>
-      </c>
-      <c r="B35" s="7">
-        <v>4</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E35" s="4">
-        <v>0</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H35" s="4"/>
-    </row>
-    <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
-        <v>34</v>
-      </c>
-      <c r="B36" s="7">
-        <v>11</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E36" s="4">
-        <v>101</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
-        <v>35</v>
-      </c>
-      <c r="B37" s="7">
-        <v>2</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E37" s="4">
-        <v>220</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
-        <v>36</v>
-      </c>
-      <c r="B38" s="7">
-        <v>2</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E38" s="4">
-        <v>472</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
-        <v>37</v>
-      </c>
-      <c r="B39" s="7">
-        <v>5</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E39" s="4">
-        <v>1002</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
-        <v>38</v>
-      </c>
-      <c r="B40" s="7">
-        <v>1</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E40" s="4">
-        <v>102</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
-        <v>39</v>
-      </c>
-      <c r="B41" s="7">
-        <v>1</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E41" s="4">
-        <v>5623</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H41" s="4"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
-        <v>40</v>
-      </c>
-      <c r="B42" s="7">
-        <v>1</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E42" s="4">
-        <v>1003</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H42" s="4"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
-        <v>41</v>
-      </c>
-      <c r="B43" s="7">
-        <v>1</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E43" s="4">
-        <v>4992</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H43" s="4"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
-        <v>42</v>
-      </c>
-      <c r="B44" s="7">
-        <v>1</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E44" s="4">
-        <v>2491</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H44" s="4"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
-        <v>43</v>
-      </c>
-      <c r="B45" s="7">
-        <v>1</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E45" s="4">
-        <v>100</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H45" s="4"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
-        <v>44</v>
-      </c>
-      <c r="B46" s="7">
-        <v>1</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E46" s="4">
-        <v>4642</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H46" s="4"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
-        <v>45</v>
-      </c>
-      <c r="B47" s="7">
-        <v>1</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E47" s="4">
-        <v>3092</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H47" s="4"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
-        <v>46</v>
-      </c>
-      <c r="B48" s="7">
-        <v>1</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
-        <v>47</v>
-      </c>
-      <c r="B49" s="7">
-        <v>1</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="H49" s="4"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
-        <v>48</v>
-      </c>
-      <c r="B50" s="7">
-        <v>1</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="H50" s="4"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
-        <v>49</v>
-      </c>
-      <c r="B51" s="7">
-        <v>1</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="7">
-        <v>50</v>
-      </c>
-      <c r="B52" s="7">
-        <v>1</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H52" s="4"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="7">
-        <v>51</v>
-      </c>
-      <c r="B53" s="7">
-        <v>1</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="H53" s="4"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="7">
-        <v>52</v>
-      </c>
-      <c r="B54" s="7">
-        <v>1</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="H54" s="4"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="7">
-        <v>53</v>
-      </c>
-      <c r="B55" s="7">
-        <v>1</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H55" s="4"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="7">
-        <v>54</v>
-      </c>
-      <c r="B56" s="7">
-        <v>1</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="H56" s="4"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="7">
-        <v>55</v>
-      </c>
-      <c r="B57" s="7">
-        <v>1</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="H57" s="4"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="7">
-        <v>56</v>
-      </c>
-      <c r="B58" s="7">
-        <v>1</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="H58" s="4"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="7">
-        <v>57</v>
-      </c>
-      <c r="B59" s="7">
-        <v>1</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="H59" s="4"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="7">
-        <v>58</v>
-      </c>
-      <c r="B60" s="7">
-        <v>1</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="H60" s="4"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="7">
-        <v>59</v>
-      </c>
-      <c r="B61" s="7">
-        <v>4</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H61" s="4"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="7">
-        <v>60</v>
-      </c>
-      <c r="B62" s="7">
-        <v>4</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="7">
-        <v>61</v>
-      </c>
-      <c r="B63" s="7">
-        <v>1</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="7">
-        <v>62</v>
-      </c>
-      <c r="B64" s="7">
-        <v>5</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="7">
-        <v>63</v>
-      </c>
-      <c r="B65" s="7">
-        <v>3</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H65" s="4"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>